--- a/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\Shares\Rep-Software\A-FSE-2\Nazionale\Test Case\0 AAA VALIDAZIONE\7-Referto Specialistico Ambulatoriale CCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsbiomedical.sharepoint.com/sites/CCE/Documenti condivisi/General/2025/FSE2.0/RefertoAmbulatoriale/Accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE3D2BD-B34B-4626-A865-F753FA9349FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{6EE3D2BD-B34B-4626-A865-F753FA9349FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A73C6E-235A-464F-ADBB-0A7D4DEEF697}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1035" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="3780" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="476">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1808,6 +1808,24 @@
   </si>
   <si>
     <t>subject_application_version:5.2</t>
+  </si>
+  <si>
+    <t>2025-06-30T16:19:29Z</t>
+  </si>
+  <si>
+    <t>2c9b4f0f8ed35b33b35007658236c5c1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.e89ce51a312403fd8fe814c081ad0efddea1bd70880d88ed6e7d2fe29168a4ef.4f41c6cf7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>07b64deaf4a87f9e1c4804f5da5b5d6a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.a7d0e930b42b4210ea4d82614a7d622deb2944886b49af6b9029312651ca97d5.062e823fc7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-30T16:31:22Z</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2324,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2466,6 +2484,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3920,10 +3941,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10140,8 +10161,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="35">
+    <row r="166" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="64">
         <v>448</v>
       </c>
       <c r="B166" s="35" t="s">
@@ -10156,19 +10177,23 @@
       <c r="E166" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="F166" s="37"/>
-      <c r="G166" s="37"/>
-      <c r="H166" s="37"/>
-      <c r="I166" s="42"/>
+      <c r="F166" s="37">
+        <v>45838</v>
+      </c>
+      <c r="G166" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="H166" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="I166" s="42" t="s">
+        <v>472</v>
+      </c>
       <c r="J166" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="K166" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="L166" s="38" t="s">
-        <v>462</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K166" s="38"/>
+      <c r="L166" s="38"/>
       <c r="M166" s="38"/>
       <c r="N166" s="38"/>
       <c r="O166" s="38"/>
@@ -10183,8 +10208,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="35">
+    <row r="167" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="64">
         <v>449</v>
       </c>
       <c r="B167" s="35" t="s">
@@ -10199,19 +10224,23 @@
       <c r="E167" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="F167" s="37"/>
-      <c r="G167" s="37"/>
-      <c r="H167" s="37"/>
-      <c r="I167" s="42"/>
+      <c r="F167" s="37">
+        <v>45838</v>
+      </c>
+      <c r="G167" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="H167" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="I167" s="42" t="s">
+        <v>474</v>
+      </c>
       <c r="J167" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="K167" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="L167" s="38" t="s">
-        <v>462</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K167" s="38"/>
+      <c r="L167" s="38"/>
       <c r="M167" s="38"/>
       <c r="N167" s="38"/>
       <c r="O167" s="38"/>
@@ -17472,12 +17501,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d7f68386-493d-45ae-a8be-0127587ba52d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09e6feb9-687d-4a54-a060-63e4039200cf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17670,20 +17701,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d7f68386-493d-45ae-a8be-0127587ba52d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09e6feb9-687d-4a54-a060-63e4039200cf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d7f68386-493d-45ae-a8be-0127587ba52d"/>
+    <ds:schemaRef ds:uri="09e6feb9-687d-4a54-a060-63e4039200cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17708,20 +17748,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d7f68386-493d-45ae-a8be-0127587ba52d"/>
-    <ds:schemaRef ds:uri="09e6feb9-687d-4a54-a060-63e4039200cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsbiomedical.sharepoint.com/sites/CCE/Documenti condivisi/General/2025/FSE2.0/RefertoAmbulatoriale/Accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{6EE3D2BD-B34B-4626-A865-F753FA9349FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A73C6E-235A-464F-ADBB-0A7D4DEEF697}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{F0046899-CCC7-411A-869C-E144E1DA6661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358EBF21-6F29-4AC5-A5A6-87006A53ACC5}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3780" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="478">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1719,9 +1719,6 @@
     <t>Domini FSE non raggiungibili</t>
   </si>
   <si>
-    <t>Il documento non viene Firmato digitalmente</t>
-  </si>
-  <si>
     <t>2025-06-12T15:53:39Z</t>
   </si>
   <si>
@@ -1826,6 +1823,15 @@
   </si>
   <si>
     <t>2025-06-30T16:31:22Z</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Il documento rimane nella lista dei documenti da firmare. La presenza di almeno un documento non firmato in quella lista attiva degli allarmi per avvisare il medico. Da questa lista il medico può eventualmente firmare a blocchi eventuali documenti non firmati.</t>
+  </si>
+  <si>
+    <t>Errore nella validazione del documento</t>
   </si>
 </sst>
 </file>
@@ -2324,7 +2330,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2462,6 +2468,9 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2485,8 +2494,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2792,7 +2801,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,11 +3949,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W752"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E130" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="H166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F166" sqref="F166"/>
+      <selection pane="bottomRight" activeCell="Q125" sqref="Q125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3956,7 +3965,8 @@
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="18" width="36.42578125" customWidth="1"/>
+    <col min="11" max="17" width="36.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" customWidth="1"/>
     <col min="19" max="19" width="27.140625" customWidth="1"/>
     <col min="20" max="20" width="33.140625" customWidth="1"/>
     <col min="21" max="21" width="36.42578125" customWidth="1"/>
@@ -3986,14 +3996,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="D2" s="62"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="63"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4014,14 +4024,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="63" t="s">
-        <v>467</v>
-      </c>
-      <c r="D3" s="62"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="63"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4042,12 +4052,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="63" t="s">
-        <v>468</v>
-      </c>
-      <c r="D4" s="62"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="63"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4069,12 +4079,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="63" t="s">
-        <v>469</v>
-      </c>
-      <c r="D5" s="62"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" s="63"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4095,8 +4105,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5028,7 +5038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>48</v>
       </c>
@@ -5047,38 +5057,36 @@
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="38"/>
+      <c r="J31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="38"/>
       <c r="K31" s="38"/>
-      <c r="L31" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="L31" s="38"/>
       <c r="M31" s="38" t="s">
         <v>64</v>
       </c>
       <c r="N31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" s="38" t="s">
         <v>439</v>
-      </c>
-      <c r="O31" s="38" t="s">
-        <v>228</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>228</v>
       </c>
       <c r="Q31" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="R31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="R31" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="S31" s="38"/>
-      <c r="T31" s="39" t="s">
-        <v>64</v>
-      </c>
+      <c r="S31" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="T31" s="39"/>
       <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
+      <c r="V31" s="65"/>
       <c r="W31" s="38" t="s">
         <v>44</v>
       </c>
@@ -8197,7 +8205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="35">
         <v>152</v>
       </c>
@@ -8217,26 +8225,40 @@
         <v>45820</v>
       </c>
       <c r="G116" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="H116" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="H116" s="37" t="s">
+      <c r="I116" s="42" t="s">
         <v>442</v>
-      </c>
-      <c r="I116" s="42" t="s">
-        <v>443</v>
       </c>
       <c r="J116" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K116" s="38"/>
       <c r="L116" s="38"/>
-      <c r="M116" s="38"/>
-      <c r="N116" s="38"/>
-      <c r="O116" s="38"/>
-      <c r="P116" s="38"/>
-      <c r="Q116" s="38"/>
-      <c r="R116" s="38"/>
-      <c r="S116" s="38"/>
+      <c r="M116" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N116" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O116" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="P116" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q116" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R116" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S116" s="38" t="s">
+        <v>476</v>
+      </c>
       <c r="T116" s="38"/>
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
@@ -8244,7 +8266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="35">
         <v>154</v>
       </c>
@@ -8264,26 +8286,40 @@
         <v>45820</v>
       </c>
       <c r="G117" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="H117" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="H117" s="37" t="s">
+      <c r="I117" s="42" t="s">
         <v>445</v>
-      </c>
-      <c r="I117" s="42" t="s">
-        <v>446</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K117" s="38"/>
       <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="38"/>
-      <c r="P117" s="38"/>
-      <c r="Q117" s="38"/>
-      <c r="R117" s="38"/>
-      <c r="S117" s="38"/>
+      <c r="M117" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N117" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O117" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="P117" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q117" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R117" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S117" s="38" t="s">
+        <v>476</v>
+      </c>
       <c r="T117" s="38"/>
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
@@ -8291,7 +8327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="35">
         <v>155</v>
       </c>
@@ -8311,26 +8347,40 @@
         <v>45820</v>
       </c>
       <c r="G118" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="H118" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="H118" s="37" t="s">
+      <c r="I118" s="42" t="s">
         <v>448</v>
-      </c>
-      <c r="I118" s="42" t="s">
-        <v>449</v>
       </c>
       <c r="J118" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K118" s="38"/>
       <c r="L118" s="38"/>
-      <c r="M118" s="38"/>
-      <c r="N118" s="38"/>
-      <c r="O118" s="38"/>
-      <c r="P118" s="38"/>
-      <c r="Q118" s="38"/>
-      <c r="R118" s="38"/>
-      <c r="S118" s="38"/>
+      <c r="M118" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N118" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O118" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="P118" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q118" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R118" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S118" s="38" t="s">
+        <v>476</v>
+      </c>
       <c r="T118" s="38"/>
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
@@ -8420,7 +8470,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="35">
         <v>160</v>
       </c>
@@ -8440,26 +8490,40 @@
         <v>45820</v>
       </c>
       <c r="G121" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="H121" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="H121" s="37" t="s">
+      <c r="I121" s="42" t="s">
         <v>451</v>
-      </c>
-      <c r="I121" s="42" t="s">
-        <v>452</v>
       </c>
       <c r="J121" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K121" s="38"/>
       <c r="L121" s="38"/>
-      <c r="M121" s="38"/>
-      <c r="N121" s="38"/>
-      <c r="O121" s="38"/>
-      <c r="P121" s="38"/>
-      <c r="Q121" s="38"/>
-      <c r="R121" s="38"/>
-      <c r="S121" s="38"/>
+      <c r="M121" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N121" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O121" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="P121" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q121" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R121" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S121" s="38" t="s">
+        <v>476</v>
+      </c>
       <c r="T121" s="38"/>
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
@@ -8467,7 +8531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="35">
         <v>161</v>
       </c>
@@ -8487,26 +8551,40 @@
         <v>45820</v>
       </c>
       <c r="G122" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="H122" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="H122" s="37" t="s">
+      <c r="I122" s="42" t="s">
         <v>454</v>
-      </c>
-      <c r="I122" s="42" t="s">
-        <v>455</v>
       </c>
       <c r="J122" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K122" s="38"/>
       <c r="L122" s="38"/>
-      <c r="M122" s="38"/>
-      <c r="N122" s="38"/>
-      <c r="O122" s="38"/>
-      <c r="P122" s="38"/>
-      <c r="Q122" s="38"/>
-      <c r="R122" s="38"/>
-      <c r="S122" s="38"/>
+      <c r="M122" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N122" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O122" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="P122" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q122" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R122" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S122" s="38" t="s">
+        <v>476</v>
+      </c>
       <c r="T122" s="38"/>
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
@@ -8514,7 +8592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="35">
         <v>162</v>
       </c>
@@ -8534,26 +8612,40 @@
         <v>45820</v>
       </c>
       <c r="G123" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="H123" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="H123" s="37" t="s">
+      <c r="I123" s="42" t="s">
         <v>457</v>
-      </c>
-      <c r="I123" s="42" t="s">
-        <v>458</v>
       </c>
       <c r="J123" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K123" s="38"/>
       <c r="L123" s="38"/>
-      <c r="M123" s="38"/>
-      <c r="N123" s="38"/>
-      <c r="O123" s="38"/>
-      <c r="P123" s="38"/>
-      <c r="Q123" s="38"/>
-      <c r="R123" s="38"/>
-      <c r="S123" s="38"/>
+      <c r="M123" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N123" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O123" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="P123" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q123" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R123" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S123" s="38" t="s">
+        <v>476</v>
+      </c>
       <c r="T123" s="38"/>
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
@@ -8561,7 +8653,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="35">
         <v>163</v>
       </c>
@@ -8581,26 +8673,40 @@
         <v>45820</v>
       </c>
       <c r="G124" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="H124" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="H124" s="50" t="s">
+      <c r="I124" s="42" t="s">
         <v>460</v>
-      </c>
-      <c r="I124" s="42" t="s">
-        <v>461</v>
       </c>
       <c r="J124" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K124" s="38"/>
       <c r="L124" s="38"/>
-      <c r="M124" s="38"/>
-      <c r="N124" s="38"/>
-      <c r="O124" s="38"/>
-      <c r="P124" s="38"/>
-      <c r="Q124" s="38"/>
-      <c r="R124" s="38"/>
-      <c r="S124" s="38"/>
+      <c r="M124" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N124" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O124" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="P124" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q124" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R124" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S124" s="38" t="s">
+        <v>476</v>
+      </c>
       <c r="T124" s="38"/>
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
@@ -8635,7 +8741,7 @@
         <v>239</v>
       </c>
       <c r="L125" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M125" s="38"/>
       <c r="N125" s="38"/>
@@ -8678,7 +8784,7 @@
         <v>239</v>
       </c>
       <c r="L126" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M126" s="38"/>
       <c r="N126" s="38"/>
@@ -8721,7 +8827,7 @@
         <v>239</v>
       </c>
       <c r="L127" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M127" s="38"/>
       <c r="N127" s="38"/>
@@ -8764,7 +8870,7 @@
         <v>239</v>
       </c>
       <c r="L128" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M128" s="38"/>
       <c r="N128" s="38"/>
@@ -8807,7 +8913,7 @@
         <v>239</v>
       </c>
       <c r="L129" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M129" s="38"/>
       <c r="N129" s="38"/>
@@ -8850,7 +8956,7 @@
         <v>239</v>
       </c>
       <c r="L130" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M130" s="38"/>
       <c r="N130" s="38"/>
@@ -10162,7 +10268,7 @@
       </c>
     </row>
     <row r="166" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="64">
+      <c r="A166" s="51">
         <v>448</v>
       </c>
       <c r="B166" s="35" t="s">
@@ -10181,13 +10287,13 @@
         <v>45838</v>
       </c>
       <c r="G166" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="H166" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="H166" s="50" t="s">
+      <c r="I166" s="42" t="s">
         <v>471</v>
-      </c>
-      <c r="I166" s="42" t="s">
-        <v>472</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -10209,7 +10315,7 @@
       </c>
     </row>
     <row r="167" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="64">
+      <c r="A167" s="51">
         <v>449</v>
       </c>
       <c r="B167" s="35" t="s">
@@ -10228,13 +10334,13 @@
         <v>45838</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H167" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="I167" s="42" t="s">
         <v>473</v>
-      </c>
-      <c r="I167" s="42" t="s">
-        <v>474</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -10652,7 +10758,7 @@
         <v>239</v>
       </c>
       <c r="L178" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M178" s="38"/>
       <c r="N178" s="38"/>
@@ -15229,8 +15335,8 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsbiomedical.sharepoint.com/sites/CCE/Documenti condivisi/General/2025/FSE2.0/RefertoAmbulatoriale/Accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{F0046899-CCC7-411A-869C-E144E1DA6661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358EBF21-6F29-4AC5-A5A6-87006A53ACC5}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{296571AE-C83C-42F7-AC21-0514DCC39A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E79BB5D-17BE-49D3-9308-4FA721F010FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1807,24 +1807,6 @@
     <t>subject_application_version:5.2</t>
   </si>
   <si>
-    <t>2025-06-30T16:19:29Z</t>
-  </si>
-  <si>
-    <t>2c9b4f0f8ed35b33b35007658236c5c1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.e89ce51a312403fd8fe814c081ad0efddea1bd70880d88ed6e7d2fe29168a4ef.4f41c6cf7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>07b64deaf4a87f9e1c4804f5da5b5d6a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.a7d0e930b42b4210ea4d82614a7d622deb2944886b49af6b9029312651ca97d5.062e823fc7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-06-30T16:31:22Z</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -1832,6 +1814,24 @@
   </si>
   <si>
     <t>Errore nella validazione del documento</t>
+  </si>
+  <si>
+    <t>2025-09-18T09:10:59Z</t>
+  </si>
+  <si>
+    <t>2025-09-18T09:32:06Z</t>
+  </si>
+  <si>
+    <t>ef9b80ff0ceebbd719ed63604048136d</t>
+  </si>
+  <si>
+    <t>bba10d4e101cd1a3dbb5c022552fc697</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.5ca2933f8eeecb59c07a7df46c403cb75bf9c1806ed6a57263adc9bdc26209e7.8148c21ac5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.822a27fc1679a728e859b16eb18e3006c2a800d265f31ca3020609d279d7700d.231af52442^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2471,6 +2471,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2493,9 +2496,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3950,10 +3950,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q125" sqref="Q125"/>
+      <selection pane="bottomRight" activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3996,14 +3996,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="63" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="64"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4024,14 +4024,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="65" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4052,12 +4052,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="64" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
         <v>467</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4079,12 +4079,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="64" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="65" t="s">
         <v>468</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4105,8 +4105,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5076,17 +5076,17 @@
         <v>228</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="R31" s="38" t="s">
         <v>64</v>
       </c>
       <c r="S31" s="38" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="T31" s="39"/>
       <c r="U31" s="40"/>
-      <c r="V31" s="65"/>
+      <c r="V31" s="52"/>
       <c r="W31" s="38" t="s">
         <v>44</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="35">
         <v>127</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="35">
         <v>128</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="35">
         <v>129</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="35">
         <v>130</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="35">
         <v>131</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="35">
         <v>132</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="35">
         <v>133</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="35">
         <v>134</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="35">
         <v>135</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="35">
         <v>136</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="35">
         <v>137</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="35">
         <v>138</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="35">
         <v>139</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="35">
         <v>140</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="35">
         <v>141</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="35">
         <v>142</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="35">
         <v>143</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="35">
         <v>144</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="35">
         <v>145</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="35">
         <v>146</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>64</v>
       </c>
       <c r="O116" s="38" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P116" s="38" t="s">
         <v>228</v>
@@ -8257,7 +8257,7 @@
         <v>64</v>
       </c>
       <c r="S116" s="38" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="T116" s="38"/>
       <c r="U116" s="39"/>
@@ -8306,7 +8306,7 @@
         <v>64</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P117" s="38" t="s">
         <v>228</v>
@@ -8318,7 +8318,7 @@
         <v>64</v>
       </c>
       <c r="S117" s="38" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="T117" s="38"/>
       <c r="U117" s="39"/>
@@ -8367,7 +8367,7 @@
         <v>64</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P118" s="38" t="s">
         <v>228</v>
@@ -8379,7 +8379,7 @@
         <v>64</v>
       </c>
       <c r="S118" s="38" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="T118" s="38"/>
       <c r="U118" s="39"/>
@@ -8510,7 +8510,7 @@
         <v>64</v>
       </c>
       <c r="O121" s="38" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P121" s="38" t="s">
         <v>228</v>
@@ -8522,7 +8522,7 @@
         <v>64</v>
       </c>
       <c r="S121" s="38" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="T121" s="38"/>
       <c r="U121" s="39"/>
@@ -8571,7 +8571,7 @@
         <v>64</v>
       </c>
       <c r="O122" s="38" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P122" s="38" t="s">
         <v>228</v>
@@ -8583,7 +8583,7 @@
         <v>64</v>
       </c>
       <c r="S122" s="38" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="T122" s="38"/>
       <c r="U122" s="39"/>
@@ -8632,7 +8632,7 @@
         <v>64</v>
       </c>
       <c r="O123" s="38" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P123" s="38" t="s">
         <v>228</v>
@@ -8644,7 +8644,7 @@
         <v>64</v>
       </c>
       <c r="S123" s="38" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="T123" s="38"/>
       <c r="U123" s="39"/>
@@ -8693,7 +8693,7 @@
         <v>64</v>
       </c>
       <c r="O124" s="38" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P124" s="38" t="s">
         <v>228</v>
@@ -8705,7 +8705,7 @@
         <v>64</v>
       </c>
       <c r="S124" s="38" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="T124" s="38"/>
       <c r="U124" s="39"/>
@@ -10284,16 +10284,16 @@
         <v>389</v>
       </c>
       <c r="F166" s="37">
-        <v>45838</v>
+        <v>45918</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H166" s="50" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -10331,16 +10331,16 @@
         <v>390</v>
       </c>
       <c r="F167" s="37">
-        <v>45838</v>
+        <v>45918</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H167" s="50" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -10811,7 +10811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="35">
         <v>463</v>
       </c>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsbiomedical.sharepoint.com/sites/CCE/Documenti condivisi/General/2025/FSE2.0/RefertoAmbulatoriale/Accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{296571AE-C83C-42F7-AC21-0514DCC39A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E79BB5D-17BE-49D3-9308-4FA721F010FA}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{296571AE-C83C-42F7-AC21-0514DCC39A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B1F80BB-3A0B-4BFA-9C7E-BB0B4EB3804F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1816,22 +1816,22 @@
     <t>Errore nella validazione del documento</t>
   </si>
   <si>
-    <t>2025-09-18T09:10:59Z</t>
-  </si>
-  <si>
     <t>2025-09-18T09:32:06Z</t>
   </si>
   <si>
-    <t>ef9b80ff0ceebbd719ed63604048136d</t>
-  </si>
-  <si>
     <t>bba10d4e101cd1a3dbb5c022552fc697</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.5ca2933f8eeecb59c07a7df46c403cb75bf9c1806ed6a57263adc9bdc26209e7.8148c21ac5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.822a27fc1679a728e859b16eb18e3006c2a800d265f31ca3020609d279d7700d.231af52442^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>bfe7ac8402d879cc4b72896355d8b825</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.c6016806f93450c918bb4f60dbcb44621e52b6a3f0d910e55fdefc0ce4c5ba56.1f029045ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-25T09:44:48Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.603265c824ebb115b80813a2860ac4c1339935991658eca16f901ee90f789ce2.f462c8154a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -10284,16 +10284,16 @@
         <v>389</v>
       </c>
       <c r="F166" s="37">
-        <v>45918</v>
+        <v>45925</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H166" s="50" t="s">
         <v>474</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -10334,10 +10334,10 @@
         <v>45918</v>
       </c>
       <c r="G167" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="H167" s="50" t="s">
         <v>473</v>
-      </c>
-      <c r="H167" s="50" t="s">
-        <v>475</v>
       </c>
       <c r="I167" s="42" t="s">
         <v>477</v>
@@ -17607,17 +17607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d7f68386-493d-45ae-a8be-0127587ba52d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09e6feb9-687d-4a54-a060-63e4039200cf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E275B764DC98E43B4DA066243F80C93" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="aa564fafd8f2dfcc5988922891c5a63c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09e6feb9-687d-4a54-a060-63e4039200cf" xmlns:ns3="d7f68386-493d-45ae-a8be-0127587ba52d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d986677770abd89361018d21748f761c" ns2:_="" ns3:_="">
     <xsd:import namespace="09e6feb9-687d-4a54-a060-63e4039200cf"/>
@@ -17806,6 +17795,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d7f68386-493d-45ae-a8be-0127587ba52d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09e6feb9-687d-4a54-a060-63e4039200cf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17816,6 +17816,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE3E9EE5-BAE5-4BB9-B6DA-DD50BB0AE963}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="09e6feb9-687d-4a54-a060-63e4039200cf"/>
+    <ds:schemaRef ds:uri="d7f68386-493d-45ae-a8be-0127587ba52d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17834,25 +17853,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE3E9EE5-BAE5-4BB9-B6DA-DD50BB0AE963}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="09e6feb9-687d-4a54-a060-63e4039200cf"/>
-    <ds:schemaRef ds:uri="d7f68386-493d-45ae-a8be-0127587ba52d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsbiomedical.sharepoint.com/sites/CCE/Documenti condivisi/General/2025/FSE2.0/RefertoAmbulatoriale/Accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{296571AE-C83C-42F7-AC21-0514DCC39A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B1F80BB-3A0B-4BFA-9C7E-BB0B4EB3804F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{003A39BF-F474-4612-BC0F-70C6D638D06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1816,12 +1816,6 @@
     <t>Errore nella validazione del documento</t>
   </si>
   <si>
-    <t>2025-09-18T09:32:06Z</t>
-  </si>
-  <si>
-    <t>bba10d4e101cd1a3dbb5c022552fc697</t>
-  </si>
-  <si>
     <t>bfe7ac8402d879cc4b72896355d8b825</t>
   </si>
   <si>
@@ -1832,6 +1826,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.603265c824ebb115b80813a2860ac4c1339935991658eca16f901ee90f789ce2.f462c8154a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7b697a3cf097c694dafbbbc72b313c5d</t>
+  </si>
+  <si>
+    <t>2025-09-25T10:03:36Z</t>
   </si>
 </sst>
 </file>
@@ -10287,13 +10287,13 @@
         <v>45925</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H166" s="50" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -10331,16 +10331,16 @@
         <v>390</v>
       </c>
       <c r="F167" s="37">
-        <v>45918</v>
+        <v>45925</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="H167" s="50" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -17607,6 +17607,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d7f68386-493d-45ae-a8be-0127587ba52d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09e6feb9-687d-4a54-a060-63e4039200cf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E275B764DC98E43B4DA066243F80C93" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="aa564fafd8f2dfcc5988922891c5a63c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09e6feb9-687d-4a54-a060-63e4039200cf" xmlns:ns3="d7f68386-493d-45ae-a8be-0127587ba52d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d986677770abd89361018d21748f761c" ns2:_="" ns3:_="">
     <xsd:import namespace="09e6feb9-687d-4a54-a060-63e4039200cf"/>
@@ -17795,17 +17806,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d7f68386-493d-45ae-a8be-0127587ba52d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09e6feb9-687d-4a54-a060-63e4039200cf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17816,6 +17816,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d7f68386-493d-45ae-a8be-0127587ba52d"/>
+    <ds:schemaRef ds:uri="09e6feb9-687d-4a54-a060-63e4039200cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE3E9EE5-BAE5-4BB9-B6DA-DD50BB0AE963}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17834,25 +17853,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d7f68386-493d-45ae-a8be-0127587ba52d"/>
-    <ds:schemaRef ds:uri="09e6feb9-687d-4a54-a060-63e4039200cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOCCEAMB/5.2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsbiomedical.sharepoint.com/sites/CCE/Documenti condivisi/General/2025/FSE2.0/RefertoAmbulatoriale/Accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{003A39BF-F474-4612-BC0F-70C6D638D06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB77881-DBC5-4BFC-900B-728B5EABDED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1825,13 +1825,13 @@
     <t>2025-09-25T09:44:48Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.603265c824ebb115b80813a2860ac4c1339935991658eca16f901ee90f789ce2.f462c8154a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7b697a3cf097c694dafbbbc72b313c5d</t>
-  </si>
-  <si>
-    <t>2025-09-25T10:03:36Z</t>
+    <t>c9187d792298784e83a7efd4ed5f0a77</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.e3132a5ac1d84e3dc0bdd629e258f22efcac911c81fab56d630e3a674fb6daec.eb644d7879^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-29T10:07:41Z</t>
   </si>
 </sst>
 </file>
@@ -3950,10 +3950,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I167" sqref="I167"/>
+      <selection pane="bottomRight" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10331,16 +10331,16 @@
         <v>390</v>
       </c>
       <c r="F167" s="37">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="G167" s="37" t="s">
         <v>477</v>
       </c>
       <c r="H167" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="I167" s="42" t="s">
         <v>476</v>
-      </c>
-      <c r="I167" s="42" t="s">
-        <v>475</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
